--- a/tabular/CosmoAf1cmiss.xlsx
+++ b/tabular/CosmoAf1cmiss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Africa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66095524-FB2E-E548-960D-89DE45559A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58D051-D51B-3942-B511-4804296DC7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28740" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
-  <si>
-    <t>sequence.sequenceID</t>
-  </si>
-  <si>
-    <t>alignment.name</t>
-  </si>
-  <si>
-    <t>alignment.displayName</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.id</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.display_name</t>
-  </si>
-  <si>
-    <t>sequence.gb_place_sampled</t>
-  </si>
-  <si>
-    <t>sequence.collection_year</t>
-  </si>
-  <si>
-    <t>sequence.earliest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.latest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.gb_length</t>
-  </si>
-  <si>
-    <t>sequence.gb_create_date</t>
-  </si>
-  <si>
-    <t>sequence.gb_update_date</t>
-  </si>
-  <si>
-    <t>sequence.host</t>
-  </si>
-  <si>
-    <t>sequence.gb_pubmed_id</t>
-  </si>
-  <si>
-    <t>sequence.isolate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>country_edit</t>
   </si>
@@ -184,39 +139,15 @@
     <t xml:space="preserve">Information found in 12643834. Not sampled in this study but same author. </t>
   </si>
   <si>
-    <t>Country_update</t>
-  </si>
-  <si>
     <t>place_edit</t>
   </si>
   <si>
     <t>place_update</t>
   </si>
   <si>
-    <t>Collection.year_edit</t>
-  </si>
-  <si>
-    <t>Collection.year_update</t>
-  </si>
-  <si>
-    <t>earliest.collection_edit</t>
-  </si>
-  <si>
-    <t>earliest.collection_update</t>
-  </si>
-  <si>
-    <t>latest.collection_edit</t>
-  </si>
-  <si>
-    <t>latest.collection_update</t>
-  </si>
-  <si>
     <t>host_update</t>
   </si>
   <si>
-    <t>host.common_edit</t>
-  </si>
-  <si>
     <t>pubmed_update</t>
   </si>
   <si>
@@ -232,20 +163,95 @@
     <t>Lab_construct</t>
   </si>
   <si>
-    <t>vaccine</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>Canis lupus familiaris</t>
+  </si>
+  <si>
+    <t>recordID</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>alignment_name</t>
+  </si>
+  <si>
+    <t>alignment_displayName</t>
+  </si>
+  <si>
+    <t>m49_country.id</t>
+  </si>
+  <si>
+    <t>m49_country.display_name</t>
+  </si>
+  <si>
+    <t>gb_place_sampled</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>earliest_collection_year</t>
+  </si>
+  <si>
+    <t>latest_collection_year</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>gb_pubmed_id</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>country_update</t>
+  </si>
+  <si>
+    <t>collection_year_edit</t>
+  </si>
+  <si>
+    <t>collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -275,8 +281,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,14 +321,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -396,6 +404,17 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -406,9 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -418,15 +434,58 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -759,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="AD5" sqref="A1:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,130 +854,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>65</v>
+      <c r="AG1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
         <v>2001</v>
@@ -927,97 +992,97 @@
         <v>2090</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="7">
-        <v>2001</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>2001</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>67</v>
+      <c r="AE2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1">
         <v>2003</v>
@@ -1026,100 +1091,100 @@
         <v>319</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1980</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="10">
+      <c r="W3" s="7">
         <v>1980</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="X3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="8">
         <v>1980</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>1980</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>67</v>
+      <c r="Z3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="AH3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>2004</v>
@@ -1128,97 +1193,97 @@
         <v>11801</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="12">
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="9">
         <v>2004</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>67</v>
+      <c r="Z4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
         <v>1998</v>
@@ -1227,97 +1292,97 @@
         <v>11801</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="6">
         <v>1998</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>67</v>
+      <c r="Z5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>1986</v>
@@ -1326,97 +1391,97 @@
         <v>11801</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="12">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="9">
         <v>1986</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>67</v>
+      <c r="Z6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1">
         <v>1995</v>
@@ -1425,77 +1490,93 @@
         <v>400</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="14">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="11">
         <v>1995</v>
       </c>
-      <c r="V7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y7" s="14">
+      <c r="V7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="11">
         <v>1995</v>
       </c>
-      <c r="Z7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>46</v>
+      <c r="Z7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:R1048576 T1:T1048576 V1:V1048576 X1:X1048576 Z1:Z1048576 AB1:AB1048576 AG1:AG1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="updated">
-      <formula>NOT(ISERROR(SEARCH("updated",R1)))</formula>
+  <conditionalFormatting sqref="R2:R1048576 T2:T1048576 V2:V1048576 X2:X1048576 Z2:Z1048576 AB2:AB1048576 AG2:AG1048576">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="updated">
+      <formula>NOT(ISERROR(SEARCH("updated",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="filled in">
-      <formula>NOT(ISERROR(SEARCH("filled in",R1)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="filled in">
+      <formula>NOT(ISERROR(SEARCH("filled in",R2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1 T1 V1 X1 Z1 AB1 AG1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"filled in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
